--- a/kei2007.xlsx
+++ b/kei2007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="351">
   <si>
     <t>Country</t>
   </si>
@@ -627,6 +627,444 @@
   </si>
   <si>
     <t>4.64</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>4.43</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>1.84</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-13</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-22</t>
   </si>
 </sst>
 </file>
@@ -688,6 +1126,15 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -702,6 +1149,15 @@
       <c r="D2" t="s">
         <v>143</v>
       </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -716,6 +1172,15 @@
       <c r="D3" t="s">
         <v>144</v>
       </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -730,6 +1195,15 @@
       <c r="D4" t="s">
         <v>145</v>
       </c>
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -744,6 +1218,15 @@
       <c r="D5" t="s">
         <v>146</v>
       </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -758,6 +1241,15 @@
       <c r="D6" t="s">
         <v>147</v>
       </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -772,6 +1264,15 @@
       <c r="D7" t="s">
         <v>148</v>
       </c>
+      <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -786,6 +1287,15 @@
       <c r="D8" t="s">
         <v>149</v>
       </c>
+      <c r="E8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -800,6 +1310,15 @@
       <c r="D9" t="s">
         <v>150</v>
       </c>
+      <c r="E9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G9" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -814,6 +1333,15 @@
       <c r="D10" t="s">
         <v>151</v>
       </c>
+      <c r="E10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -828,6 +1356,15 @@
       <c r="D11" t="s">
         <v>151</v>
       </c>
+      <c r="E11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -842,6 +1379,15 @@
       <c r="D12" t="s">
         <v>152</v>
       </c>
+      <c r="E12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -856,6 +1402,15 @@
       <c r="D13" t="s">
         <v>153</v>
       </c>
+      <c r="E13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -870,6 +1425,15 @@
       <c r="D14" t="s">
         <v>154</v>
       </c>
+      <c r="E14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -884,6 +1448,15 @@
       <c r="D15" t="s">
         <v>155</v>
       </c>
+      <c r="E15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -898,6 +1471,15 @@
       <c r="D16" t="s">
         <v>156</v>
       </c>
+      <c r="E16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -912,6 +1494,15 @@
       <c r="D17" t="s">
         <v>157</v>
       </c>
+      <c r="E17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -926,6 +1517,15 @@
       <c r="D18" t="s">
         <v>157</v>
       </c>
+      <c r="E18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -940,6 +1540,15 @@
       <c r="D19" t="s">
         <v>158</v>
       </c>
+      <c r="E19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -954,6 +1563,15 @@
       <c r="D20" t="s">
         <v>159</v>
       </c>
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -968,6 +1586,15 @@
       <c r="D21" t="s">
         <v>160</v>
       </c>
+      <c r="E21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -982,6 +1609,15 @@
       <c r="D22" t="s">
         <v>161</v>
       </c>
+      <c r="E22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -996,6 +1632,15 @@
       <c r="D23" t="s">
         <v>162</v>
       </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1010,6 +1655,15 @@
       <c r="D24" t="s">
         <v>162</v>
       </c>
+      <c r="E24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1024,6 +1678,15 @@
       <c r="D25" t="s">
         <v>163</v>
       </c>
+      <c r="E25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1038,6 +1701,15 @@
       <c r="D26" t="s">
         <v>164</v>
       </c>
+      <c r="E26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1052,6 +1724,15 @@
       <c r="D27" t="s">
         <v>165</v>
       </c>
+      <c r="E27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1066,6 +1747,15 @@
       <c r="D28" t="s">
         <v>166</v>
       </c>
+      <c r="E28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1080,6 +1770,15 @@
       <c r="D29" t="s">
         <v>167</v>
       </c>
+      <c r="E29" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" t="s">
+        <v>295</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1094,6 +1793,15 @@
       <c r="D30" t="s">
         <v>167</v>
       </c>
+      <c r="E30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" t="s">
+        <v>296</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1108,6 +1816,15 @@
       <c r="D31" t="s">
         <v>168</v>
       </c>
+      <c r="E31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1122,6 +1839,15 @@
       <c r="D32" t="s">
         <v>169</v>
       </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1136,6 +1862,15 @@
       <c r="D33" t="s">
         <v>170</v>
       </c>
+      <c r="E33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1150,6 +1885,15 @@
       <c r="D34" t="s">
         <v>171</v>
       </c>
+      <c r="E34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1164,6 +1908,15 @@
       <c r="D35" t="s">
         <v>172</v>
       </c>
+      <c r="E35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1178,6 +1931,15 @@
       <c r="D36" t="s">
         <v>173</v>
       </c>
+      <c r="E36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1192,6 +1954,15 @@
       <c r="D37" t="s">
         <v>174</v>
       </c>
+      <c r="E37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1206,6 +1977,15 @@
       <c r="D38" t="s">
         <v>175</v>
       </c>
+      <c r="E38" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1220,6 +2000,15 @@
       <c r="D39" t="s">
         <v>176</v>
       </c>
+      <c r="E39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1234,6 +2023,15 @@
       <c r="D40" t="s">
         <v>177</v>
       </c>
+      <c r="E40" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1248,6 +2046,15 @@
       <c r="D41" t="s">
         <v>178</v>
       </c>
+      <c r="E41" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1262,6 +2069,15 @@
       <c r="D42" t="s">
         <v>179</v>
       </c>
+      <c r="E42" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1276,6 +2092,15 @@
       <c r="D43" t="s">
         <v>180</v>
       </c>
+      <c r="E43" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1290,6 +2115,15 @@
       <c r="D44" t="s">
         <v>181</v>
       </c>
+      <c r="E44" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1304,6 +2138,15 @@
       <c r="D45" t="s">
         <v>182</v>
       </c>
+      <c r="E45" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1318,6 +2161,15 @@
       <c r="D46" t="s">
         <v>183</v>
       </c>
+      <c r="E46" t="s">
+        <v>248</v>
+      </c>
+      <c r="F46" t="s">
+        <v>312</v>
+      </c>
+      <c r="G46" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1332,6 +2184,15 @@
       <c r="D47" t="s">
         <v>184</v>
       </c>
+      <c r="E47" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1346,6 +2207,15 @@
       <c r="D48" t="s">
         <v>185</v>
       </c>
+      <c r="E48" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1360,6 +2230,15 @@
       <c r="D49" t="s">
         <v>186</v>
       </c>
+      <c r="E49" t="s">
+        <v>251</v>
+      </c>
+      <c r="F49" t="s">
+        <v>315</v>
+      </c>
+      <c r="G49" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -1374,6 +2253,15 @@
       <c r="D50" t="s">
         <v>187</v>
       </c>
+      <c r="E50" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1388,6 +2276,15 @@
       <c r="D51" t="s">
         <v>188</v>
       </c>
+      <c r="E51" t="s">
+        <v>252</v>
+      </c>
+      <c r="F51" t="s">
+        <v>317</v>
+      </c>
+      <c r="G51" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1402,6 +2299,15 @@
       <c r="D52" t="s">
         <v>189</v>
       </c>
+      <c r="E52" t="s">
+        <v>253</v>
+      </c>
+      <c r="F52" t="s">
+        <v>318</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1416,6 +2322,15 @@
       <c r="D53" t="s">
         <v>189</v>
       </c>
+      <c r="E53" t="s">
+        <v>254</v>
+      </c>
+      <c r="F53" t="s">
+        <v>319</v>
+      </c>
+      <c r="G53" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1430,6 +2345,15 @@
       <c r="D54" t="s">
         <v>190</v>
       </c>
+      <c r="E54" t="s">
+        <v>255</v>
+      </c>
+      <c r="F54" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1444,6 +2368,15 @@
       <c r="D55" t="s">
         <v>191</v>
       </c>
+      <c r="E55" t="s">
+        <v>256</v>
+      </c>
+      <c r="F55" t="s">
+        <v>321</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1458,6 +2391,15 @@
       <c r="D56" t="s">
         <v>192</v>
       </c>
+      <c r="E56" t="s">
+        <v>257</v>
+      </c>
+      <c r="F56" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1472,6 +2414,15 @@
       <c r="D57" t="s">
         <v>193</v>
       </c>
+      <c r="E57" t="s">
+        <v>258</v>
+      </c>
+      <c r="F57" t="s">
+        <v>323</v>
+      </c>
+      <c r="G57" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1486,6 +2437,15 @@
       <c r="D58" t="s">
         <v>194</v>
       </c>
+      <c r="E58" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" t="s">
+        <v>324</v>
+      </c>
+      <c r="G58" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -1500,6 +2460,15 @@
       <c r="D59" t="s">
         <v>194</v>
       </c>
+      <c r="E59" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" t="s">
+        <v>325</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -1514,6 +2483,15 @@
       <c r="D60" t="s">
         <v>195</v>
       </c>
+      <c r="E60" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -1528,6 +2506,15 @@
       <c r="D61" t="s">
         <v>196</v>
       </c>
+      <c r="E61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F61" t="s">
+        <v>327</v>
+      </c>
+      <c r="G61" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -1542,6 +2529,15 @@
       <c r="D62" t="s">
         <v>196</v>
       </c>
+      <c r="E62" t="s">
+        <v>263</v>
+      </c>
+      <c r="F62" t="s">
+        <v>328</v>
+      </c>
+      <c r="G62" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -1556,6 +2552,15 @@
       <c r="D63" t="s">
         <v>197</v>
       </c>
+      <c r="E63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F63" t="s">
+        <v>329</v>
+      </c>
+      <c r="G63" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -1570,6 +2575,15 @@
       <c r="D64" t="s">
         <v>198</v>
       </c>
+      <c r="E64" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -1584,6 +2598,15 @@
       <c r="D65" t="s">
         <v>199</v>
       </c>
+      <c r="E65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" t="s">
+        <v>331</v>
+      </c>
+      <c r="G65" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -1598,6 +2621,15 @@
       <c r="D66" t="s">
         <v>200</v>
       </c>
+      <c r="E66" t="s">
+        <v>267</v>
+      </c>
+      <c r="F66" t="s">
+        <v>332</v>
+      </c>
+      <c r="G66" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -1612,6 +2644,15 @@
       <c r="D67" t="s">
         <v>201</v>
       </c>
+      <c r="E67" t="s">
+        <v>268</v>
+      </c>
+      <c r="F67" t="s">
+        <v>333</v>
+      </c>
+      <c r="G67" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -1626,6 +2667,15 @@
       <c r="D68" t="s">
         <v>202</v>
       </c>
+      <c r="E68" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" t="s">
+        <v>334</v>
+      </c>
+      <c r="G68" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -1640,6 +2690,15 @@
       <c r="D69" t="s">
         <v>202</v>
       </c>
+      <c r="E69" t="s">
+        <v>270</v>
+      </c>
+      <c r="F69" t="s">
+        <v>335</v>
+      </c>
+      <c r="G69" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -1654,6 +2713,15 @@
       <c r="D70" t="s">
         <v>203</v>
       </c>
+      <c r="E70" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" t="s">
+        <v>335</v>
+      </c>
+      <c r="G70" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -1667,6 +2735,15 @@
       </c>
       <c r="D71" t="s">
         <v>204</v>
+      </c>
+      <c r="E71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" t="s">
+        <v>335</v>
+      </c>
+      <c r="G71" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/kei2007.xlsx
+++ b/kei2007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="411">
   <si>
     <t>Country</t>
   </si>
@@ -629,6 +629,426 @@
     <t>4.64</t>
   </si>
   <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep.</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep.</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Yemen, Rep.</t>
+  </si>
+  <si>
+    <t>Cote D'Ivoire</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>4.52</t>
   </si>
   <si>
@@ -825,246 +1245,6 @@
   </si>
   <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-13</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-26</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>-22</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1333,10 @@
         <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
@@ -1176,10 +1356,10 @@
         <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
@@ -1199,10 +1379,10 @@
         <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -1222,10 +1402,10 @@
         <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
@@ -1245,10 +1425,10 @@
         <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7">
@@ -1268,10 +1448,10 @@
         <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
@@ -1291,10 +1471,10 @@
         <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="G8" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
@@ -1314,10 +1494,10 @@
         <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10">
@@ -1337,10 +1517,10 @@
         <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11">
@@ -1360,10 +1540,10 @@
         <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="G11" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12">
@@ -1383,10 +1563,10 @@
         <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
@@ -1406,10 +1586,10 @@
         <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
@@ -1429,10 +1609,10 @@
         <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G14" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15">
@@ -1452,10 +1632,10 @@
         <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G15" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16">
@@ -1475,10 +1655,10 @@
         <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G16" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17">
@@ -1498,10 +1678,10 @@
         <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G17" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18">
@@ -1521,10 +1701,10 @@
         <v>221</v>
       </c>
       <c r="F18" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G18" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19">
@@ -1544,10 +1724,10 @@
         <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20">
@@ -1567,10 +1747,10 @@
         <v>223</v>
       </c>
       <c r="F20" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G20" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21">
@@ -1590,10 +1770,10 @@
         <v>224</v>
       </c>
       <c r="F21" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22">
@@ -1613,10 +1793,10 @@
         <v>225</v>
       </c>
       <c r="F22" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23">
@@ -1636,10 +1816,10 @@
         <v>226</v>
       </c>
       <c r="F23" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G23" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24">
@@ -1659,10 +1839,10 @@
         <v>227</v>
       </c>
       <c r="F24" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G24" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25">
@@ -1682,10 +1862,10 @@
         <v>228</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26">
@@ -1705,10 +1885,10 @@
         <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G26" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27">
@@ -1728,10 +1908,10 @@
         <v>230</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G27" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28">
@@ -1751,10 +1931,10 @@
         <v>231</v>
       </c>
       <c r="F28" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29">
@@ -1774,10 +1954,10 @@
         <v>232</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30">
@@ -1797,10 +1977,10 @@
         <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31">
@@ -1820,10 +2000,10 @@
         <v>234</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>3</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32">
@@ -1840,13 +2020,13 @@
         <v>169</v>
       </c>
       <c r="E32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" t="s">
         <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>298</v>
-      </c>
-      <c r="G32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="33">
@@ -1863,13 +2043,13 @@
         <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34">
@@ -1886,13 +2066,13 @@
         <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35">
@@ -1909,13 +2089,13 @@
         <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G35" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36">
@@ -1932,13 +2112,13 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37">
@@ -1955,13 +2135,13 @@
         <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38">
@@ -1978,13 +2158,13 @@
         <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39">
@@ -2001,13 +2181,13 @@
         <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
@@ -2024,13 +2204,13 @@
         <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41">
@@ -2047,13 +2227,13 @@
         <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42">
@@ -2070,13 +2250,13 @@
         <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
@@ -2093,13 +2273,13 @@
         <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44">
@@ -2116,13 +2296,13 @@
         <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G44" t="s">
-        <v>3</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45">
@@ -2139,13 +2319,13 @@
         <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G45" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46">
@@ -2162,13 +2342,13 @@
         <v>183</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F46" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G46" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47">
@@ -2185,13 +2365,13 @@
         <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48">
@@ -2208,13 +2388,13 @@
         <v>185</v>
       </c>
       <c r="E48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49">
@@ -2231,13 +2411,13 @@
         <v>186</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F49" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G49" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50">
@@ -2254,13 +2434,13 @@
         <v>187</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F50" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G50" t="s">
-        <v>3</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51">
@@ -2277,13 +2457,13 @@
         <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F51" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G51" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52">
@@ -2300,13 +2480,13 @@
         <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F52" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53">
@@ -2323,13 +2503,13 @@
         <v>189</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G53" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54">
@@ -2346,13 +2526,13 @@
         <v>190</v>
       </c>
       <c r="E54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F54" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G54" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55">
@@ -2369,13 +2549,13 @@
         <v>191</v>
       </c>
       <c r="E55" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F55" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56">
@@ -2392,13 +2572,13 @@
         <v>192</v>
       </c>
       <c r="E56" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G56" t="s">
-        <v>6</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57">
@@ -2415,13 +2595,13 @@
         <v>193</v>
       </c>
       <c r="E57" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F57" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G57" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58">
@@ -2438,13 +2618,13 @@
         <v>194</v>
       </c>
       <c r="E58" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F58" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G58" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59">
@@ -2461,13 +2641,13 @@
         <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F59" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G59" t="s">
-        <v>5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60">
@@ -2484,13 +2664,13 @@
         <v>195</v>
       </c>
       <c r="E60" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61">
@@ -2507,13 +2687,13 @@
         <v>196</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G61" t="s">
-        <v>5</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62">
@@ -2530,13 +2710,13 @@
         <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F62" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G62" t="s">
-        <v>336</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63">
@@ -2553,13 +2733,13 @@
         <v>197</v>
       </c>
       <c r="E63" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F63" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G63" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64">
@@ -2576,13 +2756,13 @@
         <v>198</v>
       </c>
       <c r="E64" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F64" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G64" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65">
@@ -2599,13 +2779,13 @@
         <v>199</v>
       </c>
       <c r="E65" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F65" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G65" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66">
@@ -2622,13 +2802,13 @@
         <v>200</v>
       </c>
       <c r="E66" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G66" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67">
@@ -2645,13 +2825,13 @@
         <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F67" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G67" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68">
@@ -2668,13 +2848,13 @@
         <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F68" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G68" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69">
@@ -2691,13 +2871,13 @@
         <v>202</v>
       </c>
       <c r="E69" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F69" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G69" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70">
@@ -2714,13 +2894,13 @@
         <v>203</v>
       </c>
       <c r="E70" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G70" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71">
@@ -2737,13 +2917,13 @@
         <v>204</v>
       </c>
       <c r="E71" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F71" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="G71" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
